--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,6 +609,19 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,12 +1279,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="18" t="s">
         <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="20">
+        <v>44932</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1482,22 +1504,15 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+    <row r="43" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="15">
-        <v>44932</v>
-      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>Konu</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Hasan Tarık YURTSEVEN</t>
+  </si>
+  <si>
+    <t>Erkut UYSAL</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,12 +1542,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="18" t="s">
         <v>42</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Konu</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Muhammed KADO</t>
   </si>
   <si>
-    <t>Enes YAŞAR</t>
-  </si>
-  <si>
     <t>Eda TORLAK</t>
   </si>
   <si>
@@ -377,6 +374,15 @@
   </si>
   <si>
     <t>Erkut UYSAL</t>
+  </si>
+  <si>
+    <t>Batuhan ÇELEBİ</t>
+  </si>
+  <si>
+    <t>Remziye ER</t>
+  </si>
+  <si>
+    <t>Eray NAKIŞÇI</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>78</v>
@@ -1004,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>71</v>
@@ -1106,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>78</v>
@@ -1123,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>78</v>
@@ -1165,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
@@ -1198,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>78</v>
@@ -1215,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>78</v>
@@ -1257,12 +1263,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="18" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="20">
+        <v>44933</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -1273,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="20">
         <v>44932</v>
@@ -1356,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>78</v>
@@ -1423,10 +1438,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="20">
         <v>44932</v>
@@ -1464,10 +1479,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="15">
         <v>44932</v>
@@ -1481,7 +1496,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>78</v>
@@ -1498,10 +1513,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="20">
         <v>44932</v>
@@ -1533,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>78</v>
@@ -1550,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>78</v>
@@ -1575,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>78</v>
@@ -1609,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>78</v>
@@ -1668,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>78</v>
@@ -1685,7 +1700,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>71</v>
@@ -1719,7 +1734,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>78</v>
@@ -1762,12 +1777,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+    <row r="60" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="18" t="s">
         <v>56</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="20">
+        <v>44933</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1810,10 +1834,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="E65" s="15">
         <v>44932</v>
@@ -1835,7 +1859,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>78</v>

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Konu</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Yusuf BİLGİÇ</t>
   </si>
   <si>
-    <t>Ayxan Nasirli</t>
-  </si>
-  <si>
     <t>Mert KIYDAN</t>
   </si>
   <si>
@@ -383,6 +380,15 @@
   </si>
   <si>
     <t>Eray NAKIŞÇI</t>
+  </si>
+  <si>
+    <t>Ayxan NASİRLİ</t>
+  </si>
+  <si>
+    <t>Orkun CANIGÜR</t>
+  </si>
+  <si>
+    <t>Bashar EL YASİN</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,19 +624,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>78</v>
@@ -1171,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
@@ -1221,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>78</v>
@@ -1271,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>78</v>
@@ -1288,10 +1281,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="20">
         <v>44932</v>
@@ -1438,10 +1431,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="20">
         <v>44932</v>
@@ -1479,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>71</v>
@@ -1496,7 +1489,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>78</v>
@@ -1513,24 +1506,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="20">
         <v>44932</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+    <row r="43" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
+      <c r="C43" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="20">
+        <v>44933</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -1548,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>78</v>
@@ -1565,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>78</v>
@@ -1683,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>78</v>
@@ -1785,7 +1785,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>78</v>
@@ -1810,12 +1810,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+    <row r="63" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="18" t="s">
         <v>59</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="20">
+        <v>44933</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,10 +1843,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="E65" s="15">
         <v>44932</v>

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -388,7 +388,7 @@
     <t>Orkun CANIGÜR</t>
   </si>
   <si>
-    <t>Bashar EL YASİN</t>
+    <t>Beşşar YASİN</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>Konu</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Beşşar YASİN</t>
+  </si>
+  <si>
+    <t>Enes YAŞAR</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,7 +944,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,12 +1670,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="18" t="s">
         <v>49</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="20">
+        <v>44933</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>Konu</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>Enes YAŞAR</t>
+  </si>
+  <si>
+    <t>Yunus Emre SALCAN</t>
+  </si>
+  <si>
+    <t>Selahattin Berat Tutkun</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,12 +1140,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="20">
+        <v>44934</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -1577,12 +1592,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="18" t="s">
         <v>43</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="20">
+        <v>44934</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>Konu</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Ahmet ASSI</t>
   </si>
   <si>
-    <t>Ozgür PEYNİRCİ</t>
-  </si>
-  <si>
     <t>Beyza Nur Yüksel</t>
   </si>
   <si>
@@ -398,6 +395,12 @@
   </si>
   <si>
     <t>Selahattin Berat Tutkun</t>
+  </si>
+  <si>
+    <t>Özgür PEYNİRCİ</t>
+  </si>
+  <si>
+    <t>Ahmet KALELİ</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>78</v>
@@ -1148,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>78</v>
@@ -1182,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
@@ -1191,12 +1194,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="15">
+        <v>44935</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>78</v>
@@ -1282,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>78</v>
@@ -1490,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>71</v>
@@ -1507,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>78</v>
@@ -1541,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>78</v>
@@ -1583,7 +1595,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>78</v>
@@ -1600,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>78</v>
@@ -1702,7 +1714,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>78</v>
@@ -1821,7 +1833,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>78</v>
@@ -1854,7 +1866,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>78</v>

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -394,13 +394,13 @@
     <t>Yunus Emre SALCAN</t>
   </si>
   <si>
-    <t>Selahattin Berat Tutkun</t>
-  </si>
-  <si>
     <t>Özgür PEYNİRCİ</t>
   </si>
   <si>
     <t>Ahmet KALELİ</t>
+  </si>
+  <si>
+    <t>Selahattin Berat TUTKUN</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +636,19 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
@@ -1202,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>78</v>
@@ -1345,12 +1358,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="18" t="s">
         <v>25</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="20">
+        <v>44935</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -1604,22 +1626,16 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
+    <row r="47" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="20">
-        <v>44934</v>
-      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>Konu</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Selahattin Berat TUTKUN</t>
+  </si>
+  <si>
+    <t>Mehmet ŞAKAR</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,12 +1403,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="18" t="s">
         <v>28</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="20">
+        <v>44936</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>Konu</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Mehmet ŞAKAR</t>
+  </si>
+  <si>
+    <t>Kerim ÖZTÜRK</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1018,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="20">
+        <v>44936</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>Konu</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Kerim ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Melih Tunahan BAĞ</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,19 +645,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -971,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,16 +1640,22 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+    <row r="47" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
+      <c r="C47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="20">
+        <v>44936</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>Konu</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>Melih Tunahan BAĞ</t>
+  </si>
+  <si>
+    <t>Samet Yiğit GÜNAY</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,12 +1484,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="18" t="s">
         <v>30</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="20">
+        <v>44937</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -379,9 +379,6 @@
     <t>Eray NAKIŞÇI</t>
   </si>
   <si>
-    <t>Ayxan NASİRLİ</t>
-  </si>
-  <si>
     <t>Orkun CANIGÜR</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Samet Yiğit GÜNAY</t>
+  </si>
+  <si>
+    <t>Aykhan NASİRLİ</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>78</v>
@@ -1172,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>78</v>
@@ -1206,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>78</v>
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>78</v>
@@ -1374,7 +1374,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>78</v>
@@ -1416,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>71</v>
@@ -1492,7 +1492,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>78</v>
@@ -1567,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>78</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>78</v>
@@ -1660,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>78</v>
@@ -1762,7 +1762,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>78</v>
@@ -1914,7 +1914,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>78</v>

--- a/VerimadenciligiCalismaKonulari (2).xlsx
+++ b/VerimadenciligiCalismaKonulari (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>Konu</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Aykhan NASİRLİ</t>
+  </si>
+  <si>
+    <t>Selman ATEŞ</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,12 +1926,21 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="18" t="s">
         <v>60</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="20">
+        <v>44943</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
